--- a/historiaUsuarioBacklog.xlsx
+++ b/historiaUsuarioBacklog.xlsx
@@ -53,9 +53,6 @@
     <t xml:space="preserve"> HU-5</t>
   </si>
   <si>
-    <t>BACGLOG</t>
-  </si>
-  <si>
     <t>Como usuario administrador, quiero poder visualizar todos los
 gastos e ingresos de la empresa</t>
   </si>
@@ -320,6 +317,9 @@
   </si>
   <si>
     <t xml:space="preserve">RESPONSABLES </t>
+  </si>
+  <si>
+    <t>BACKGLOG</t>
   </si>
 </sst>
 </file>
@@ -744,96 +744,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -852,93 +762,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -947,9 +770,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -958,8 +778,188 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1265,7 +1265,7 @@
   <dimension ref="A1:H79"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:H8"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1276,981 +1276,1031 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="79" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
+      <c r="A1" s="50" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="83" t="s">
+      <c r="A2" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="80" t="s">
+      <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="81" t="s">
+      <c r="E2" s="49" t="s">
+        <v>83</v>
+      </c>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+    </row>
+    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="82" t="s">
-        <v>84</v>
-      </c>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
-    </row>
-    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="75" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="76" t="s">
+      <c r="B3" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="77"/>
-      <c r="D3" s="78" t="s">
+      <c r="C3" s="18"/>
+      <c r="D3" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="47" t="s">
-        <v>39</v>
-      </c>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="48"/>
+      <c r="E3" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="40"/>
     </row>
     <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="23"/>
+      <c r="A4" s="54"/>
       <c r="B4" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="3"/>
-      <c r="D4" s="42" t="s">
+      <c r="D4" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="48"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="40"/>
     </row>
     <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="23"/>
+      <c r="A5" s="54"/>
       <c r="B5" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="3"/>
-      <c r="D5" s="41" t="s">
+      <c r="D5" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="48"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="40"/>
     </row>
     <row r="6" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="23"/>
+      <c r="A6" s="54"/>
       <c r="B6" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="3"/>
-      <c r="D6" s="43" t="s">
+      <c r="D6" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="48"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="40"/>
     </row>
     <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="23"/>
+      <c r="A7" s="54"/>
       <c r="B7" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="3"/>
-      <c r="D7" s="41" t="s">
+      <c r="D7" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="48"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="40"/>
     </row>
     <row r="8" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="24"/>
+      <c r="A8" s="55"/>
       <c r="B8" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" s="3"/>
-      <c r="D8" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="49"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="50"/>
+      <c r="D8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="42"/>
     </row>
     <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="C9" s="4"/>
+      <c r="D9" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="43"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="44"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="24"/>
+      <c r="B10" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="44" t="s">
+      <c r="C10" s="4"/>
+      <c r="D10" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="51" t="s">
+      <c r="E10" s="45"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="46"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="24"/>
+      <c r="B11" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="46"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="24"/>
+      <c r="B12" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="45"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="46"/>
+    </row>
+    <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="24"/>
+      <c r="B13" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="45"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="46"/>
+    </row>
+    <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="38"/>
+      <c r="B14" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="45"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="46"/>
+    </row>
+    <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="45"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="46"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="24"/>
+      <c r="B16" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="46"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="24"/>
+      <c r="B17" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="45"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="46"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="24"/>
+      <c r="B18" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" s="45"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="46"/>
+    </row>
+    <row r="19" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="25"/>
+      <c r="B19" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" s="47"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="47"/>
+      <c r="H19" s="48"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="52"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="26"/>
-      <c r="B10" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="45" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="54"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="26"/>
-      <c r="B11" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="44" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="54"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="26"/>
-      <c r="B12" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="46" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="53"/>
-      <c r="F12" s="53"/>
-      <c r="G12" s="53"/>
-      <c r="H12" s="54"/>
-    </row>
-    <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="26"/>
-      <c r="B13" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="44" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" s="53"/>
-      <c r="F13" s="53"/>
-      <c r="G13" s="53"/>
-      <c r="H13" s="54"/>
-    </row>
-    <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="27"/>
-      <c r="B14" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="44" t="s">
-        <v>27</v>
-      </c>
-      <c r="E14" s="53"/>
-      <c r="F14" s="53"/>
-      <c r="G14" s="53"/>
-      <c r="H14" s="54"/>
-    </row>
-    <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="44" t="s">
-        <v>29</v>
-      </c>
-      <c r="E15" s="53"/>
-      <c r="F15" s="53"/>
-      <c r="G15" s="53"/>
-      <c r="H15" s="54"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="26"/>
-      <c r="B16" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="45" t="s">
-        <v>30</v>
-      </c>
-      <c r="E16" s="53"/>
-      <c r="F16" s="53"/>
-      <c r="G16" s="53"/>
-      <c r="H16" s="54"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="26"/>
-      <c r="B17" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="44" t="s">
-        <v>31</v>
-      </c>
-      <c r="E17" s="53"/>
-      <c r="F17" s="53"/>
-      <c r="G17" s="53"/>
-      <c r="H17" s="54"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="26"/>
-      <c r="B18" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="46" t="s">
-        <v>32</v>
-      </c>
-      <c r="E18" s="53"/>
-      <c r="F18" s="53"/>
-      <c r="G18" s="53"/>
-      <c r="H18" s="54"/>
-    </row>
-    <row r="19" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="29"/>
-      <c r="B19" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="44" t="s">
-        <v>33</v>
-      </c>
-      <c r="E19" s="55"/>
-      <c r="F19" s="55"/>
-      <c r="G19" s="55"/>
-      <c r="H19" s="56"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="15" t="s">
+      <c r="B20" s="51" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="52"/>
+      <c r="D20" s="77" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="19" t="s">
+      <c r="E20" s="62" t="s">
+        <v>78</v>
+      </c>
+      <c r="F20" s="62"/>
+      <c r="G20" s="62"/>
+      <c r="H20" s="70"/>
+    </row>
+    <row r="21" spans="1:8" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="57"/>
+      <c r="B21" s="51"/>
+      <c r="C21" s="52"/>
+      <c r="D21" s="78"/>
+      <c r="E21" s="65"/>
+      <c r="F21" s="65"/>
+      <c r="G21" s="65"/>
+      <c r="H21" s="71"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="57"/>
+      <c r="B22" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="18"/>
-      <c r="D20" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="E20" s="57" t="s">
+      <c r="C22" s="52"/>
+      <c r="D22" s="77" t="s">
+        <v>44</v>
+      </c>
+      <c r="E22" s="65"/>
+      <c r="F22" s="65"/>
+      <c r="G22" s="65"/>
+      <c r="H22" s="71"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="57"/>
+      <c r="B23" s="51"/>
+      <c r="C23" s="52"/>
+      <c r="D23" s="79"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="65"/>
+      <c r="H23" s="71"/>
+    </row>
+    <row r="24" spans="1:8" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="58"/>
+      <c r="B24" s="51"/>
+      <c r="C24" s="52"/>
+      <c r="D24" s="78"/>
+      <c r="E24" s="72"/>
+      <c r="F24" s="72"/>
+      <c r="G24" s="72"/>
+      <c r="H24" s="73"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="56" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="52"/>
+      <c r="D25" s="59" t="s">
+        <v>45</v>
+      </c>
+      <c r="E25" s="61" t="s">
         <v>79</v>
       </c>
-      <c r="F20" s="57"/>
-      <c r="G20" s="57"/>
-      <c r="H20" s="58"/>
-    </row>
-    <row r="21" spans="1:8" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="16"/>
-      <c r="B21" s="19"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="59"/>
-      <c r="F21" s="59"/>
-      <c r="G21" s="59"/>
-      <c r="H21" s="60"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="16"/>
-      <c r="B22" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="C22" s="18"/>
-      <c r="D22" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="E22" s="59"/>
-      <c r="F22" s="59"/>
-      <c r="G22" s="59"/>
-      <c r="H22" s="60"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="16"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="59"/>
-      <c r="F23" s="59"/>
-      <c r="G23" s="59"/>
-      <c r="H23" s="60"/>
-    </row>
-    <row r="24" spans="1:8" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="17"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="61"/>
-      <c r="F24" s="61"/>
-      <c r="G24" s="61"/>
-      <c r="H24" s="62"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B25" s="19" t="s">
+      <c r="F25" s="62"/>
+      <c r="G25" s="62"/>
+      <c r="H25" s="63"/>
+    </row>
+    <row r="26" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="57"/>
+      <c r="B26" s="51"/>
+      <c r="C26" s="52"/>
+      <c r="D26" s="74"/>
+      <c r="E26" s="64"/>
+      <c r="F26" s="65"/>
+      <c r="G26" s="65"/>
+      <c r="H26" s="66"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="57"/>
+      <c r="B27" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="18"/>
-      <c r="D25" s="11" t="s">
+      <c r="C27" s="52"/>
+      <c r="D27" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="E25" s="63" t="s">
+      <c r="E27" s="64"/>
+      <c r="F27" s="65"/>
+      <c r="G27" s="65"/>
+      <c r="H27" s="66"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="57"/>
+      <c r="B28" s="51"/>
+      <c r="C28" s="52"/>
+      <c r="D28" s="60"/>
+      <c r="E28" s="64"/>
+      <c r="F28" s="65"/>
+      <c r="G28" s="65"/>
+      <c r="H28" s="66"/>
+    </row>
+    <row r="29" spans="1:8" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="58"/>
+      <c r="B29" s="51"/>
+      <c r="C29" s="52"/>
+      <c r="D29" s="74"/>
+      <c r="E29" s="75"/>
+      <c r="F29" s="72"/>
+      <c r="G29" s="72"/>
+      <c r="H29" s="76"/>
+    </row>
+    <row r="30" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="56" t="s">
+        <v>49</v>
+      </c>
+      <c r="B30" s="52" t="s">
+        <v>67</v>
+      </c>
+      <c r="C30" s="8"/>
+      <c r="D30" s="59" t="s">
+        <v>50</v>
+      </c>
+      <c r="E30" s="61" t="s">
         <v>80</v>
       </c>
-      <c r="F25" s="57"/>
-      <c r="G25" s="57"/>
-      <c r="H25" s="64"/>
-    </row>
-    <row r="26" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="16"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="65"/>
-      <c r="F26" s="59"/>
-      <c r="G26" s="59"/>
-      <c r="H26" s="66"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="16"/>
-      <c r="B27" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="C27" s="18"/>
-      <c r="D27" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="E27" s="65"/>
-      <c r="F27" s="59"/>
-      <c r="G27" s="59"/>
-      <c r="H27" s="66"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="16"/>
-      <c r="B28" s="19"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="65"/>
-      <c r="F28" s="59"/>
-      <c r="G28" s="59"/>
-      <c r="H28" s="66"/>
-    </row>
-    <row r="29" spans="1:8" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="17"/>
-      <c r="B29" s="19"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="67"/>
-      <c r="F29" s="61"/>
-      <c r="G29" s="61"/>
-      <c r="H29" s="68"/>
-    </row>
-    <row r="30" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="B30" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="C30" s="8"/>
-      <c r="D30" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="E30" s="63" t="s">
-        <v>81</v>
-      </c>
-      <c r="F30" s="57"/>
-      <c r="G30" s="57"/>
-      <c r="H30" s="64"/>
+      <c r="F30" s="62"/>
+      <c r="G30" s="62"/>
+      <c r="H30" s="63"/>
     </row>
     <row r="31" spans="1:8" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="16"/>
-      <c r="B31" s="18"/>
+      <c r="A31" s="57"/>
+      <c r="B31" s="52"/>
       <c r="C31" s="10"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="65"/>
-      <c r="F31" s="59"/>
-      <c r="G31" s="59"/>
+      <c r="D31" s="60"/>
+      <c r="E31" s="64"/>
+      <c r="F31" s="65"/>
+      <c r="G31" s="65"/>
       <c r="H31" s="66"/>
     </row>
     <row r="32" spans="1:8" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="16"/>
-      <c r="B32" s="18"/>
+      <c r="A32" s="57"/>
+      <c r="B32" s="52"/>
       <c r="C32" s="9"/>
       <c r="D32" s="2"/>
-      <c r="E32" s="65"/>
-      <c r="F32" s="59"/>
-      <c r="G32" s="59"/>
+      <c r="E32" s="64"/>
+      <c r="F32" s="65"/>
+      <c r="G32" s="65"/>
       <c r="H32" s="66"/>
     </row>
     <row r="33" spans="1:8" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="16"/>
-      <c r="B33" s="18"/>
+      <c r="A33" s="57"/>
+      <c r="B33" s="52"/>
       <c r="C33" s="7"/>
       <c r="D33" s="2"/>
-      <c r="E33" s="65"/>
-      <c r="F33" s="59"/>
-      <c r="G33" s="59"/>
+      <c r="E33" s="64"/>
+      <c r="F33" s="65"/>
+      <c r="G33" s="65"/>
       <c r="H33" s="66"/>
     </row>
     <row r="34" spans="1:8" ht="89.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="17"/>
-      <c r="B34" s="18"/>
+      <c r="A34" s="58"/>
+      <c r="B34" s="52"/>
       <c r="C34" s="7"/>
       <c r="D34" s="1"/>
-      <c r="E34" s="69"/>
-      <c r="F34" s="70"/>
-      <c r="G34" s="70"/>
-      <c r="H34" s="71"/>
+      <c r="E34" s="67"/>
+      <c r="F34" s="68"/>
+      <c r="G34" s="68"/>
+      <c r="H34" s="69"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="15" t="s">
+      <c r="A35" s="56" t="s">
+        <v>51</v>
+      </c>
+      <c r="B35" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="C35" s="80"/>
+      <c r="D35" s="59" t="s">
         <v>52</v>
       </c>
-      <c r="B35" s="18" t="s">
+      <c r="E35" s="81" t="s">
+        <v>81</v>
+      </c>
+      <c r="F35" s="82"/>
+      <c r="G35" s="82"/>
+      <c r="H35" s="83"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="57"/>
+      <c r="B36" s="52"/>
+      <c r="C36" s="80"/>
+      <c r="D36" s="60"/>
+      <c r="E36" s="64"/>
+      <c r="F36" s="65"/>
+      <c r="G36" s="65"/>
+      <c r="H36" s="66"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="57"/>
+      <c r="B37" s="52"/>
+      <c r="C37" s="80"/>
+      <c r="D37" s="60"/>
+      <c r="E37" s="64"/>
+      <c r="F37" s="65"/>
+      <c r="G37" s="65"/>
+      <c r="H37" s="66"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="57"/>
+      <c r="B38" s="52"/>
+      <c r="C38" s="80"/>
+      <c r="D38" s="60"/>
+      <c r="E38" s="64"/>
+      <c r="F38" s="65"/>
+      <c r="G38" s="65"/>
+      <c r="H38" s="66"/>
+    </row>
+    <row r="39" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="58"/>
+      <c r="B39" s="52"/>
+      <c r="C39" s="80"/>
+      <c r="D39" s="74"/>
+      <c r="E39" s="75"/>
+      <c r="F39" s="72"/>
+      <c r="G39" s="72"/>
+      <c r="H39" s="76"/>
+    </row>
+    <row r="40" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="56" t="s">
+        <v>53</v>
+      </c>
+      <c r="B40" s="52" t="s">
         <v>69</v>
       </c>
-      <c r="C35" s="14"/>
-      <c r="D35" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="E35" s="72" t="s">
+      <c r="C40" s="80" t="s">
+        <v>54</v>
+      </c>
+      <c r="D40" s="59" t="s">
+        <v>55</v>
+      </c>
+      <c r="E40" s="61" t="s">
         <v>82</v>
       </c>
-      <c r="F35" s="73"/>
-      <c r="G35" s="73"/>
-      <c r="H35" s="74"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="16"/>
-      <c r="B36" s="18"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="65"/>
-      <c r="F36" s="59"/>
-      <c r="G36" s="59"/>
-      <c r="H36" s="66"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="16"/>
-      <c r="B37" s="18"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="65"/>
-      <c r="F37" s="59"/>
-      <c r="G37" s="59"/>
-      <c r="H37" s="66"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="16"/>
-      <c r="B38" s="18"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="65"/>
-      <c r="F38" s="59"/>
-      <c r="G38" s="59"/>
-      <c r="H38" s="66"/>
-    </row>
-    <row r="39" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="17"/>
-      <c r="B39" s="18"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="67"/>
-      <c r="F39" s="61"/>
-      <c r="G39" s="61"/>
-      <c r="H39" s="68"/>
-    </row>
-    <row r="40" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="B40" s="18" t="s">
+      <c r="F40" s="62"/>
+      <c r="G40" s="62"/>
+      <c r="H40" s="63"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="57"/>
+      <c r="B41" s="52"/>
+      <c r="C41" s="80"/>
+      <c r="D41" s="60"/>
+      <c r="E41" s="64"/>
+      <c r="F41" s="65"/>
+      <c r="G41" s="65"/>
+      <c r="H41" s="66"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="57"/>
+      <c r="B42" s="52"/>
+      <c r="C42" s="80"/>
+      <c r="D42" s="60"/>
+      <c r="E42" s="64"/>
+      <c r="F42" s="65"/>
+      <c r="G42" s="65"/>
+      <c r="H42" s="66"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="57"/>
+      <c r="B43" s="52"/>
+      <c r="C43" s="80"/>
+      <c r="D43" s="60"/>
+      <c r="E43" s="64"/>
+      <c r="F43" s="65"/>
+      <c r="G43" s="65"/>
+      <c r="H43" s="66"/>
+    </row>
+    <row r="44" spans="1:8" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="58"/>
+      <c r="B44" s="52"/>
+      <c r="C44" s="80"/>
+      <c r="D44" s="74"/>
+      <c r="E44" s="67"/>
+      <c r="F44" s="68"/>
+      <c r="G44" s="68"/>
+      <c r="H44" s="69"/>
+    </row>
+    <row r="45" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="B45" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="C40" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="D40" s="11" t="s">
+      <c r="C45" s="26"/>
+      <c r="D45" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="E45" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="F45" s="32"/>
+      <c r="G45" s="32"/>
+      <c r="H45" s="33"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="24"/>
+      <c r="B46" s="27"/>
+      <c r="C46" s="27"/>
+      <c r="D46" s="30"/>
+      <c r="E46" s="34"/>
+      <c r="F46" s="35"/>
+      <c r="G46" s="35"/>
+      <c r="H46" s="36"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="24"/>
+      <c r="B47" s="27"/>
+      <c r="C47" s="27"/>
+      <c r="D47" s="30"/>
+      <c r="E47" s="34"/>
+      <c r="F47" s="35"/>
+      <c r="G47" s="35"/>
+      <c r="H47" s="36"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="24"/>
+      <c r="B48" s="27"/>
+      <c r="C48" s="27"/>
+      <c r="D48" s="30"/>
+      <c r="E48" s="34"/>
+      <c r="F48" s="35"/>
+      <c r="G48" s="35"/>
+      <c r="H48" s="36"/>
+    </row>
+    <row r="49" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="25"/>
+      <c r="B49" s="28"/>
+      <c r="C49" s="28"/>
+      <c r="D49" s="30"/>
+      <c r="E49" s="34"/>
+      <c r="F49" s="35"/>
+      <c r="G49" s="35"/>
+      <c r="H49" s="36"/>
+    </row>
+    <row r="50" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="E40" s="63" t="s">
-        <v>83</v>
-      </c>
-      <c r="F40" s="57"/>
-      <c r="G40" s="57"/>
-      <c r="H40" s="64"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="16"/>
-      <c r="B41" s="18"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="12"/>
-      <c r="E41" s="65"/>
-      <c r="F41" s="59"/>
-      <c r="G41" s="59"/>
-      <c r="H41" s="66"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="16"/>
-      <c r="B42" s="18"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="65"/>
-      <c r="F42" s="59"/>
-      <c r="G42" s="59"/>
-      <c r="H42" s="66"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="16"/>
-      <c r="B43" s="18"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="12"/>
-      <c r="E43" s="65"/>
-      <c r="F43" s="59"/>
-      <c r="G43" s="59"/>
-      <c r="H43" s="66"/>
-    </row>
-    <row r="44" spans="1:8" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="17"/>
-      <c r="B44" s="18"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="13"/>
-      <c r="E44" s="69"/>
-      <c r="F44" s="70"/>
-      <c r="G44" s="70"/>
-      <c r="H44" s="71"/>
-    </row>
-    <row r="45" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="B45" s="33" t="s">
+      <c r="B50" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="C45" s="33"/>
-      <c r="D45" s="31" t="s">
+      <c r="C50" s="26"/>
+      <c r="D50" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="E45" s="36" t="s">
-        <v>78</v>
-      </c>
-      <c r="F45" s="37"/>
-      <c r="G45" s="37"/>
-      <c r="H45" s="38"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="26"/>
-      <c r="B46" s="34"/>
-      <c r="C46" s="34"/>
-      <c r="D46" s="32"/>
-      <c r="E46" s="39"/>
-      <c r="F46" s="40"/>
-      <c r="G46" s="40"/>
-      <c r="H46" s="30"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="26"/>
-      <c r="B47" s="34"/>
-      <c r="C47" s="34"/>
-      <c r="D47" s="32"/>
-      <c r="E47" s="39"/>
-      <c r="F47" s="40"/>
-      <c r="G47" s="40"/>
-      <c r="H47" s="30"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="26"/>
-      <c r="B48" s="34"/>
-      <c r="C48" s="34"/>
-      <c r="D48" s="32"/>
-      <c r="E48" s="39"/>
-      <c r="F48" s="40"/>
-      <c r="G48" s="40"/>
-      <c r="H48" s="30"/>
-    </row>
-    <row r="49" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="29"/>
-      <c r="B49" s="35"/>
-      <c r="C49" s="35"/>
-      <c r="D49" s="32"/>
-      <c r="E49" s="39"/>
-      <c r="F49" s="40"/>
-      <c r="G49" s="40"/>
-      <c r="H49" s="30"/>
-    </row>
-    <row r="50" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="B50" s="33" t="s">
+      <c r="E50" s="34"/>
+      <c r="F50" s="35"/>
+      <c r="G50" s="35"/>
+      <c r="H50" s="36"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="24"/>
+      <c r="B51" s="27"/>
+      <c r="C51" s="27"/>
+      <c r="D51" s="30"/>
+      <c r="E51" s="34"/>
+      <c r="F51" s="35"/>
+      <c r="G51" s="35"/>
+      <c r="H51" s="36"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="24"/>
+      <c r="B52" s="27"/>
+      <c r="C52" s="27"/>
+      <c r="D52" s="30"/>
+      <c r="E52" s="34"/>
+      <c r="F52" s="35"/>
+      <c r="G52" s="35"/>
+      <c r="H52" s="36"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="24"/>
+      <c r="B53" s="27"/>
+      <c r="C53" s="27"/>
+      <c r="D53" s="30"/>
+      <c r="E53" s="34"/>
+      <c r="F53" s="35"/>
+      <c r="G53" s="35"/>
+      <c r="H53" s="36"/>
+    </row>
+    <row r="54" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="25"/>
+      <c r="B54" s="28"/>
+      <c r="C54" s="28"/>
+      <c r="D54" s="30"/>
+      <c r="E54" s="34"/>
+      <c r="F54" s="35"/>
+      <c r="G54" s="35"/>
+      <c r="H54" s="36"/>
+    </row>
+    <row r="55" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="B55" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="C50" s="33"/>
-      <c r="D50" s="31" t="s">
+      <c r="C55" s="26"/>
+      <c r="D55" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="E50" s="39"/>
-      <c r="F50" s="40"/>
-      <c r="G50" s="40"/>
-      <c r="H50" s="30"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="26"/>
-      <c r="B51" s="34"/>
-      <c r="C51" s="34"/>
-      <c r="D51" s="32"/>
-      <c r="E51" s="39"/>
-      <c r="F51" s="40"/>
-      <c r="G51" s="40"/>
-      <c r="H51" s="30"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="26"/>
-      <c r="B52" s="34"/>
-      <c r="C52" s="34"/>
-      <c r="D52" s="32"/>
-      <c r="E52" s="39"/>
-      <c r="F52" s="40"/>
-      <c r="G52" s="40"/>
-      <c r="H52" s="30"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="26"/>
-      <c r="B53" s="34"/>
-      <c r="C53" s="34"/>
-      <c r="D53" s="32"/>
-      <c r="E53" s="39"/>
-      <c r="F53" s="40"/>
-      <c r="G53" s="40"/>
-      <c r="H53" s="30"/>
-    </row>
-    <row r="54" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="29"/>
-      <c r="B54" s="35"/>
-      <c r="C54" s="35"/>
-      <c r="D54" s="32"/>
-      <c r="E54" s="39"/>
-      <c r="F54" s="40"/>
-      <c r="G54" s="40"/>
-      <c r="H54" s="30"/>
-    </row>
-    <row r="55" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="B55" s="33" t="s">
+      <c r="E55" s="34"/>
+      <c r="F55" s="35"/>
+      <c r="G55" s="35"/>
+      <c r="H55" s="36"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="24"/>
+      <c r="B56" s="27"/>
+      <c r="C56" s="27"/>
+      <c r="D56" s="30"/>
+      <c r="E56" s="34"/>
+      <c r="F56" s="35"/>
+      <c r="G56" s="35"/>
+      <c r="H56" s="36"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="24"/>
+      <c r="B57" s="27"/>
+      <c r="C57" s="27"/>
+      <c r="D57" s="30"/>
+      <c r="E57" s="34"/>
+      <c r="F57" s="35"/>
+      <c r="G57" s="35"/>
+      <c r="H57" s="36"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="24"/>
+      <c r="B58" s="27"/>
+      <c r="C58" s="27"/>
+      <c r="D58" s="30"/>
+      <c r="E58" s="34"/>
+      <c r="F58" s="35"/>
+      <c r="G58" s="35"/>
+      <c r="H58" s="36"/>
+    </row>
+    <row r="59" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="25"/>
+      <c r="B59" s="28"/>
+      <c r="C59" s="28"/>
+      <c r="D59" s="30"/>
+      <c r="E59" s="34"/>
+      <c r="F59" s="35"/>
+      <c r="G59" s="35"/>
+      <c r="H59" s="36"/>
+    </row>
+    <row r="60" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="B60" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="C55" s="33"/>
-      <c r="D55" s="31" t="s">
+      <c r="C60" s="26"/>
+      <c r="D60" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="E55" s="39"/>
-      <c r="F55" s="40"/>
-      <c r="G55" s="40"/>
-      <c r="H55" s="30"/>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="26"/>
-      <c r="B56" s="34"/>
-      <c r="C56" s="34"/>
-      <c r="D56" s="32"/>
-      <c r="E56" s="39"/>
-      <c r="F56" s="40"/>
-      <c r="G56" s="40"/>
-      <c r="H56" s="30"/>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="26"/>
-      <c r="B57" s="34"/>
-      <c r="C57" s="34"/>
-      <c r="D57" s="32"/>
-      <c r="E57" s="39"/>
-      <c r="F57" s="40"/>
-      <c r="G57" s="40"/>
-      <c r="H57" s="30"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="26"/>
-      <c r="B58" s="34"/>
-      <c r="C58" s="34"/>
-      <c r="D58" s="32"/>
-      <c r="E58" s="39"/>
-      <c r="F58" s="40"/>
-      <c r="G58" s="40"/>
-      <c r="H58" s="30"/>
-    </row>
-    <row r="59" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="29"/>
-      <c r="B59" s="35"/>
-      <c r="C59" s="35"/>
-      <c r="D59" s="32"/>
-      <c r="E59" s="39"/>
-      <c r="F59" s="40"/>
-      <c r="G59" s="40"/>
-      <c r="H59" s="30"/>
-    </row>
-    <row r="60" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="28" t="s">
+      <c r="E60" s="34"/>
+      <c r="F60" s="35"/>
+      <c r="G60" s="35"/>
+      <c r="H60" s="36"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="24"/>
+      <c r="B61" s="27"/>
+      <c r="C61" s="27"/>
+      <c r="D61" s="30"/>
+      <c r="E61" s="34"/>
+      <c r="F61" s="35"/>
+      <c r="G61" s="35"/>
+      <c r="H61" s="36"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="24"/>
+      <c r="B62" s="27"/>
+      <c r="C62" s="27"/>
+      <c r="D62" s="30"/>
+      <c r="E62" s="34"/>
+      <c r="F62" s="35"/>
+      <c r="G62" s="35"/>
+      <c r="H62" s="36"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="24"/>
+      <c r="B63" s="27"/>
+      <c r="C63" s="27"/>
+      <c r="D63" s="30"/>
+      <c r="E63" s="34"/>
+      <c r="F63" s="35"/>
+      <c r="G63" s="35"/>
+      <c r="H63" s="36"/>
+    </row>
+    <row r="64" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="25"/>
+      <c r="B64" s="28"/>
+      <c r="C64" s="28"/>
+      <c r="D64" s="30"/>
+      <c r="E64" s="34"/>
+      <c r="F64" s="35"/>
+      <c r="G64" s="35"/>
+      <c r="H64" s="36"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="B60" s="33" t="s">
+      <c r="B65" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="C60" s="33"/>
-      <c r="D60" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="E60" s="39"/>
-      <c r="F60" s="40"/>
-      <c r="G60" s="40"/>
-      <c r="H60" s="30"/>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="26"/>
-      <c r="B61" s="34"/>
-      <c r="C61" s="34"/>
-      <c r="D61" s="32"/>
-      <c r="E61" s="39"/>
-      <c r="F61" s="40"/>
-      <c r="G61" s="40"/>
-      <c r="H61" s="30"/>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="26"/>
-      <c r="B62" s="34"/>
-      <c r="C62" s="34"/>
-      <c r="D62" s="32"/>
-      <c r="E62" s="39"/>
-      <c r="F62" s="40"/>
-      <c r="G62" s="40"/>
-      <c r="H62" s="30"/>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="26"/>
-      <c r="B63" s="34"/>
-      <c r="C63" s="34"/>
-      <c r="D63" s="32"/>
-      <c r="E63" s="39"/>
-      <c r="F63" s="40"/>
-      <c r="G63" s="40"/>
-      <c r="H63" s="30"/>
-    </row>
-    <row r="64" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="29"/>
-      <c r="B64" s="35"/>
-      <c r="C64" s="35"/>
-      <c r="D64" s="32"/>
-      <c r="E64" s="39"/>
-      <c r="F64" s="40"/>
-      <c r="G64" s="40"/>
-      <c r="H64" s="30"/>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="28" t="s">
+      <c r="C65" s="26"/>
+      <c r="D65" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="B65" s="33" t="s">
+      <c r="E65" s="34"/>
+      <c r="F65" s="35"/>
+      <c r="G65" s="35"/>
+      <c r="H65" s="36"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="24"/>
+      <c r="B66" s="27"/>
+      <c r="C66" s="27"/>
+      <c r="D66" s="30"/>
+      <c r="E66" s="34"/>
+      <c r="F66" s="35"/>
+      <c r="G66" s="35"/>
+      <c r="H66" s="36"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="24"/>
+      <c r="B67" s="27"/>
+      <c r="C67" s="27"/>
+      <c r="D67" s="30"/>
+      <c r="E67" s="34"/>
+      <c r="F67" s="35"/>
+      <c r="G67" s="35"/>
+      <c r="H67" s="36"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="24"/>
+      <c r="B68" s="27"/>
+      <c r="C68" s="27"/>
+      <c r="D68" s="30"/>
+      <c r="E68" s="34"/>
+      <c r="F68" s="35"/>
+      <c r="G68" s="35"/>
+      <c r="H68" s="36"/>
+    </row>
+    <row r="69" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="25"/>
+      <c r="B69" s="28"/>
+      <c r="C69" s="28"/>
+      <c r="D69" s="30"/>
+      <c r="E69" s="34"/>
+      <c r="F69" s="35"/>
+      <c r="G69" s="35"/>
+      <c r="H69" s="36"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="B70" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="C65" s="33"/>
-      <c r="D65" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="E65" s="39"/>
-      <c r="F65" s="40"/>
-      <c r="G65" s="40"/>
-      <c r="H65" s="30"/>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="26"/>
-      <c r="B66" s="34"/>
-      <c r="C66" s="34"/>
-      <c r="D66" s="32"/>
-      <c r="E66" s="39"/>
-      <c r="F66" s="40"/>
-      <c r="G66" s="40"/>
-      <c r="H66" s="30"/>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="26"/>
-      <c r="B67" s="34"/>
-      <c r="C67" s="34"/>
-      <c r="D67" s="32"/>
-      <c r="E67" s="39"/>
-      <c r="F67" s="40"/>
-      <c r="G67" s="40"/>
-      <c r="H67" s="30"/>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="26"/>
-      <c r="B68" s="34"/>
-      <c r="C68" s="34"/>
-      <c r="D68" s="32"/>
-      <c r="E68" s="39"/>
-      <c r="F68" s="40"/>
-      <c r="G68" s="40"/>
-      <c r="H68" s="30"/>
-    </row>
-    <row r="69" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="29"/>
-      <c r="B69" s="35"/>
-      <c r="C69" s="35"/>
-      <c r="D69" s="32"/>
-      <c r="E69" s="39"/>
-      <c r="F69" s="40"/>
-      <c r="G69" s="40"/>
-      <c r="H69" s="30"/>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="28" t="s">
+      <c r="C70" s="26"/>
+      <c r="D70" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="B70" s="33" t="s">
+      <c r="E70" s="34"/>
+      <c r="F70" s="35"/>
+      <c r="G70" s="35"/>
+      <c r="H70" s="36"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="24"/>
+      <c r="B71" s="27"/>
+      <c r="C71" s="27"/>
+      <c r="D71" s="30"/>
+      <c r="E71" s="34"/>
+      <c r="F71" s="35"/>
+      <c r="G71" s="35"/>
+      <c r="H71" s="36"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="24"/>
+      <c r="B72" s="27"/>
+      <c r="C72" s="27"/>
+      <c r="D72" s="30"/>
+      <c r="E72" s="34"/>
+      <c r="F72" s="35"/>
+      <c r="G72" s="35"/>
+      <c r="H72" s="36"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="24"/>
+      <c r="B73" s="27"/>
+      <c r="C73" s="27"/>
+      <c r="D73" s="30"/>
+      <c r="E73" s="34"/>
+      <c r="F73" s="35"/>
+      <c r="G73" s="35"/>
+      <c r="H73" s="36"/>
+    </row>
+    <row r="74" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="25"/>
+      <c r="B74" s="28"/>
+      <c r="C74" s="28"/>
+      <c r="D74" s="30"/>
+      <c r="E74" s="34"/>
+      <c r="F74" s="35"/>
+      <c r="G74" s="35"/>
+      <c r="H74" s="36"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="B75" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="C70" s="33"/>
-      <c r="D70" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="E70" s="39"/>
-      <c r="F70" s="40"/>
-      <c r="G70" s="40"/>
-      <c r="H70" s="30"/>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="26"/>
-      <c r="B71" s="34"/>
-      <c r="C71" s="34"/>
-      <c r="D71" s="32"/>
-      <c r="E71" s="39"/>
-      <c r="F71" s="40"/>
-      <c r="G71" s="40"/>
-      <c r="H71" s="30"/>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="26"/>
-      <c r="B72" s="34"/>
-      <c r="C72" s="34"/>
-      <c r="D72" s="32"/>
-      <c r="E72" s="39"/>
-      <c r="F72" s="40"/>
-      <c r="G72" s="40"/>
-      <c r="H72" s="30"/>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="26"/>
-      <c r="B73" s="34"/>
-      <c r="C73" s="34"/>
-      <c r="D73" s="32"/>
-      <c r="E73" s="39"/>
-      <c r="F73" s="40"/>
-      <c r="G73" s="40"/>
-      <c r="H73" s="30"/>
-    </row>
-    <row r="74" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="29"/>
-      <c r="B74" s="35"/>
-      <c r="C74" s="35"/>
-      <c r="D74" s="32"/>
-      <c r="E74" s="39"/>
-      <c r="F74" s="40"/>
-      <c r="G74" s="40"/>
-      <c r="H74" s="30"/>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="28" t="s">
+      <c r="C75" s="26"/>
+      <c r="D75" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="B75" s="33" t="s">
-        <v>77</v>
-      </c>
-      <c r="C75" s="33"/>
-      <c r="D75" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="E75" s="39"/>
-      <c r="F75" s="40"/>
-      <c r="G75" s="40"/>
-      <c r="H75" s="30"/>
+      <c r="E75" s="34"/>
+      <c r="F75" s="35"/>
+      <c r="G75" s="35"/>
+      <c r="H75" s="36"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" s="26"/>
-      <c r="B76" s="34"/>
-      <c r="C76" s="34"/>
-      <c r="D76" s="32"/>
-      <c r="E76" s="39"/>
-      <c r="F76" s="40"/>
-      <c r="G76" s="40"/>
-      <c r="H76" s="30"/>
+      <c r="A76" s="24"/>
+      <c r="B76" s="27"/>
+      <c r="C76" s="27"/>
+      <c r="D76" s="30"/>
+      <c r="E76" s="34"/>
+      <c r="F76" s="35"/>
+      <c r="G76" s="35"/>
+      <c r="H76" s="36"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77" s="26"/>
-      <c r="B77" s="34"/>
-      <c r="C77" s="34"/>
-      <c r="D77" s="32"/>
-      <c r="E77" s="39"/>
-      <c r="F77" s="40"/>
-      <c r="G77" s="40"/>
-      <c r="H77" s="30"/>
+      <c r="A77" s="24"/>
+      <c r="B77" s="27"/>
+      <c r="C77" s="27"/>
+      <c r="D77" s="30"/>
+      <c r="E77" s="34"/>
+      <c r="F77" s="35"/>
+      <c r="G77" s="35"/>
+      <c r="H77" s="36"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" s="26"/>
-      <c r="B78" s="34"/>
-      <c r="C78" s="34"/>
-      <c r="D78" s="32"/>
-      <c r="E78" s="39"/>
-      <c r="F78" s="40"/>
-      <c r="G78" s="40"/>
-      <c r="H78" s="30"/>
+      <c r="A78" s="24"/>
+      <c r="B78" s="27"/>
+      <c r="C78" s="27"/>
+      <c r="D78" s="30"/>
+      <c r="E78" s="34"/>
+      <c r="F78" s="35"/>
+      <c r="G78" s="35"/>
+      <c r="H78" s="36"/>
     </row>
     <row r="79" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="29"/>
-      <c r="B79" s="35"/>
-      <c r="C79" s="35"/>
-      <c r="D79" s="32"/>
-      <c r="E79" s="39"/>
-      <c r="F79" s="40"/>
-      <c r="G79" s="40"/>
-      <c r="H79" s="30"/>
+      <c r="A79" s="25"/>
+      <c r="B79" s="28"/>
+      <c r="C79" s="28"/>
+      <c r="D79" s="30"/>
+      <c r="E79" s="34"/>
+      <c r="F79" s="35"/>
+      <c r="G79" s="35"/>
+      <c r="H79" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="66">
+    <mergeCell ref="D40:D44"/>
+    <mergeCell ref="C40:C44"/>
+    <mergeCell ref="A35:A39"/>
+    <mergeCell ref="B35:B39"/>
+    <mergeCell ref="E35:H39"/>
+    <mergeCell ref="A40:A44"/>
+    <mergeCell ref="B40:B44"/>
+    <mergeCell ref="E40:H44"/>
+    <mergeCell ref="D35:D39"/>
+    <mergeCell ref="C35:C39"/>
+    <mergeCell ref="A30:A34"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:H34"/>
+    <mergeCell ref="B30:B34"/>
+    <mergeCell ref="E20:H24"/>
+    <mergeCell ref="A25:A29"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="E25:H29"/>
+    <mergeCell ref="A20:A24"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="D22:D24"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="A3:A8"/>
+    <mergeCell ref="A9:A14"/>
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="E3:H8"/>
+    <mergeCell ref="E9:H19"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="A50:A54"/>
+    <mergeCell ref="B50:B54"/>
+    <mergeCell ref="C50:C54"/>
+    <mergeCell ref="D50:D54"/>
+    <mergeCell ref="A45:A49"/>
+    <mergeCell ref="D45:D49"/>
+    <mergeCell ref="C45:C49"/>
+    <mergeCell ref="B45:B49"/>
+    <mergeCell ref="D60:D64"/>
+    <mergeCell ref="A55:A59"/>
+    <mergeCell ref="B55:B59"/>
+    <mergeCell ref="C55:C59"/>
+    <mergeCell ref="D55:D59"/>
     <mergeCell ref="A75:A79"/>
     <mergeCell ref="B75:B79"/>
     <mergeCell ref="C75:C79"/>
@@ -2267,56 +2317,6 @@
     <mergeCell ref="A60:A64"/>
     <mergeCell ref="B60:B64"/>
     <mergeCell ref="C60:C64"/>
-    <mergeCell ref="D60:D64"/>
-    <mergeCell ref="A55:A59"/>
-    <mergeCell ref="B55:B59"/>
-    <mergeCell ref="C55:C59"/>
-    <mergeCell ref="D55:D59"/>
-    <mergeCell ref="A50:A54"/>
-    <mergeCell ref="B50:B54"/>
-    <mergeCell ref="C50:C54"/>
-    <mergeCell ref="D50:D54"/>
-    <mergeCell ref="A45:A49"/>
-    <mergeCell ref="D45:D49"/>
-    <mergeCell ref="C45:C49"/>
-    <mergeCell ref="B45:B49"/>
-    <mergeCell ref="A9:A14"/>
-    <mergeCell ref="A15:A19"/>
-    <mergeCell ref="E3:H8"/>
-    <mergeCell ref="E9:H19"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="A3:A8"/>
-    <mergeCell ref="A30:A34"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:H34"/>
-    <mergeCell ref="B30:B34"/>
-    <mergeCell ref="E20:H24"/>
-    <mergeCell ref="A25:A29"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="D27:D29"/>
-    <mergeCell ref="E25:H29"/>
-    <mergeCell ref="A20:A24"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="D22:D24"/>
-    <mergeCell ref="D40:D44"/>
-    <mergeCell ref="C40:C44"/>
-    <mergeCell ref="A35:A39"/>
-    <mergeCell ref="B35:B39"/>
-    <mergeCell ref="E35:H39"/>
-    <mergeCell ref="A40:A44"/>
-    <mergeCell ref="B40:B44"/>
-    <mergeCell ref="E40:H44"/>
-    <mergeCell ref="D35:D39"/>
-    <mergeCell ref="C35:C39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
